--- a/benchmarks/parallel-multi-intersect/waves.xlsx
+++ b/benchmarks/parallel-multi-intersect/waves.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="126">
   <si>
     <t>Raw key error is 7503289.</t>
   </si>
@@ -37,9 +37,6 @@
     <t>key error</t>
   </si>
   <si>
-    <t>PLI build took: 45.416352s</t>
-  </si>
-  <si>
     <t>Raw key error is 4344734.</t>
   </si>
   <si>
@@ -245,6 +242,168 @@
   </si>
   <si>
     <t>Raw key error is 7503562.</t>
+  </si>
+  <si>
+    <t>PLI build took: 52.178224s</t>
+  </si>
+  <si>
+    <t>Raw key error is 2060141.</t>
+  </si>
+  <si>
+    <t>Raw key error is 26054.</t>
+  </si>
+  <si>
+    <t>Raw key error is 23922.</t>
+  </si>
+  <si>
+    <t>Raw key error is 20105.</t>
+  </si>
+  <si>
+    <t>Raw key error is 540.</t>
+  </si>
+  <si>
+    <t>Raw key error is 536.</t>
+  </si>
+  <si>
+    <t>Raw key error is 165.</t>
+  </si>
+  <si>
+    <t>Raw key error is 74.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7065385.</t>
+  </si>
+  <si>
+    <t>Raw key error is 610124.</t>
+  </si>
+  <si>
+    <t>Raw key error is 855.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7499975.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7494645.</t>
+  </si>
+  <si>
+    <t>Raw key error is 6703820.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7479439.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7040626.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7467407.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7502525.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7491269.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7495204.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7502595.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7499988.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7502652.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7503551.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7502936.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7503519.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7503459.</t>
+  </si>
+  <si>
+    <t>Raw key error is 99.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7496184.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7495211.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7494712.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7300969.</t>
+  </si>
+  <si>
+    <t>Raw key error is 6720836.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7503549.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7496979.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7315207.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7493747.</t>
+  </si>
+  <si>
+    <t>Raw key error is 2205893.</t>
+  </si>
+  <si>
+    <t>Raw key error is 200.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7503467.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7499302.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7502619.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7494410.</t>
+  </si>
+  <si>
+    <t>Raw key error is 6693924.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7503531.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7503368.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7502787.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7495193.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7477772.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7503348.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7482854.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7501630.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7478327.</t>
   </si>
 </sst>
 </file>
@@ -1741,256 +1900,256 @@
                   <c:v>4344734</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3690498</c:v>
+                  <c:v>2060141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7083387</c:v>
+                  <c:v>310210</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6220576</c:v>
+                  <c:v>26054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>310210</c:v>
+                  <c:v>23922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4186252</c:v>
+                  <c:v>23922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7023087</c:v>
+                  <c:v>20878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7476527</c:v>
+                  <c:v>20105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20878</c:v>
+                  <c:v>835</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5074749</c:v>
+                  <c:v>835</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7500873</c:v>
+                  <c:v>835</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7501755</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>835</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7500816</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7500808</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7501221</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>834</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7495009</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7461881</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7502966</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>831</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7493129</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7503289</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7503351</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7502822</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7501833</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7492445</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>169</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7494194</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7503072</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7503301</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7502885</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7503463</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7503328</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>167</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7503174</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7501044</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7499570</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>150</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7498709</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7503498</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7503512</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7503458</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7503516</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7503430</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7503458</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7503292</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7503345</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7502240</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7503518</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7503463</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7503294</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7503528</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7503528</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7503528</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7503514</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7503554</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7503520</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7503556</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7503557</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>107</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7503527</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7503547</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7503559</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7503521</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7503554</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7503555</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>103</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7503545</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7503560</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7503562</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7503560</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7503562</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7503562</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>70</c:v>
@@ -2001,7 +2160,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-266F-496F-AE5B-E8DC592B0072}"/>
+              <c16:uniqueId val="{00000001-0052-409A-9F8C-897F9F75E2FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2318,172 +2477,172 @@
                   <c:v>7083387</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>310210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23922</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>6220576</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>310210</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4186252</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>20878</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>7023087</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>7476527</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>20878</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>7500873</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>7501755</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>5074749</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>835</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>7500808</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>7500816</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>7501221</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>834</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>7461881</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>7495009</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>7502966</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>831</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>7503289</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7493129</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7503351</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7502822</c:v>
+                  <c:v>7503351</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>7501833</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>7492445</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7494194</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>7503072</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7503301</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7502885</c:v>
+                  <c:v>7503301</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>7503463</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>7503328</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7503174</c:v>
-                </c:pt>
                 <c:pt idx="38">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>7501044</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>7499570</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7498709</c:v>
-                </c:pt>
                 <c:pt idx="42">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>7503498</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7503512</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7503458</c:v>
+                  <c:v>7503512</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>7503516</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7503430</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7503458</c:v>
+                  <c:v>7503430</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>7503292</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7503345</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>7503345</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>7503518</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7502240</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7503463</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7503294</c:v>
+                  <c:v>7503463</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7503528</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>7503528</c:v>
@@ -2495,73 +2654,73 @@
                   <c:v>7503528</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>7503514</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7503554</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7503520</c:v>
+                  <c:v>7503554</c:v>
                 </c:pt>
                 <c:pt idx="66">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>7503556</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>7503557</c:v>
                 </c:pt>
-                <c:pt idx="68">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>7503527</c:v>
-                </c:pt>
                 <c:pt idx="70">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>7503547</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7503559</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7503521</c:v>
+                  <c:v>7503559</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>7503554</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>7503555</c:v>
                 </c:pt>
-                <c:pt idx="76">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7503545</c:v>
-                </c:pt>
                 <c:pt idx="78">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>7503560</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7503562</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7503560</c:v>
+                  <c:v>7503562</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>7503562</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>7503562</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>70</c:v>
@@ -2572,7 +2731,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-266F-496F-AE5B-E8DC592B0072}"/>
+              <c16:uniqueId val="{00000003-0052-409A-9F8C-897F9F75E2FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2880,10 +3039,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
                 <c:pt idx="0">
+                  <c:v>7083387</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6220576</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7083387</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4344734</c:v>
@@ -2919,10 +3078,10 @@
                   <c:v>835</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>7501221</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>7500808</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7501221</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>7500816</c:v>
@@ -2943,10 +3102,10 @@
                   <c:v>831</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>7503351</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>7503289</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7503351</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7493129</c:v>
@@ -3003,10 +3162,10 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>7503498</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>7503512</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7503498</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>7498709</c:v>
@@ -3015,10 +3174,10 @@
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>7503430</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>7503458</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7503430</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>7503516</c:v>
@@ -3027,13 +3186,13 @@
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>7503458</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>7503292</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>7503345</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7503458</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>114</c:v>
@@ -3051,13 +3210,13 @@
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7503528</c:v>
+                  <c:v>7503294</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>7503528</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7503294</c:v>
+                  <c:v>7503528</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>107</c:v>
@@ -3066,10 +3225,10 @@
                   <c:v>7503554</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>7503528</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>7503514</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7503528</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>107</c:v>
@@ -3099,10 +3258,10 @@
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>7503521</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>7503554</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7503521</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7503555</c:v>
@@ -3143,880 +3302,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-266F-496F-AE5B-E8DC592B0072}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>8 threads</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$87</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$263:$B$348</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
-                <c:pt idx="0">
-                  <c:v>4344734</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7083387</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6220576</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3690498</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7476527</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7023087</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>310210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4186252</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20878</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7501755</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7500873</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5074749</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>835</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7501221</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7500808</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7500816</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>834</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7502966</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7461881</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7495009</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>831</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7503289</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7503351</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7493129</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7502822</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7501833</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7492445</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7503301</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7503072</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7494194</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7503328</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7503463</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7502885</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7501044</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7503174</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7499570</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7503498</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7503512</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7498709</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7503430</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7503458</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7503516</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7503458</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7503292</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7503345</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7503518</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7503463</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7502240</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7503528</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7503528</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7503294</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7503554</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7503514</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7503528</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7503520</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>7503557</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>7503556</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>7503559</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7503527</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7503547</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7503554</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7503521</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7503555</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7503562</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7503560</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7503545</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7503562</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>7503560</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>7503562</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-266F-496F-AE5B-E8DC592B0072}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>16 threads</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$350:$B$435</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
-                <c:pt idx="0">
-                  <c:v>7083387</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4344734</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6220576</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3690498</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7476527</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>310210</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7023087</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4186252</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7500873</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20878</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7501755</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5074749</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>835</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7501221</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7500808</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7500816</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>834</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7502966</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7461881</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7495009</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>831</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7503351</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7503289</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7493129</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7502822</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7501833</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7492445</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7503301</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7503072</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7494194</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7503328</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7503463</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7502885</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7499570</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7501044</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7503174</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7503512</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7503498</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7498709</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7503430</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7503458</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7503516</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7503458</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7503292</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7503345</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7503518</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7503463</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7502240</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7503528</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7503528</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7503294</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7503514</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7503554</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7503528</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7503557</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>7503520</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>7503556</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>7503559</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7503527</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7503547</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7503554</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7503521</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7503555</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7503560</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7503562</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7503545</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7503562</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>7503560</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>7503562</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-266F-496F-AE5B-E8DC592B0072}"/>
+              <c16:uniqueId val="{00000005-0052-409A-9F8C-897F9F75E2FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4032,7 +3318,905 @@
         <c:smooth val="0"/>
         <c:axId val="567292096"/>
         <c:axId val="567290528"/>
-        <c:extLst/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>8 threads</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="triangle"/>
+                  <c:size val="4"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$2:$C$87</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="86"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$263:$B$348</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="86"/>
+                      <c:pt idx="0">
+                        <c:v>7476527</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7501755</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7500873</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7023087</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7083387</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6220576</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4344734</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3690498</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7500808</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7502966</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>7501221</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>7461881</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>7500816</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7065385</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>310210</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>610124</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>855</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>7501833</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>7503351</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>7503289</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7499975</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>7494645</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>7492445</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>6703820</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>7503328</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>7503463</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>831</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>7503301</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>7503072</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>7502822</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>7479439</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>7040626</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>169</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>7503512</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>7502885</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>7501044</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>7503498</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>7503174</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>7499570</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>7467407</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>167</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>7503345</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>7503430</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>7503458</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>7502525</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>7503292</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>7503516</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>7491269</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>7503528</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>7503528</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>7503463</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>7503518</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>7503458</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>7495204</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>7502595</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>7503514</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>7503554</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>7503556</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>7503557</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>7503294</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>7503528</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>7499988</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>7503560</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>7503559</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>7503527</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>7503556</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>7503547</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>7502652</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>7503520</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>7503562</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>7503560</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>7503551</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>7503562</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>7502936</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>7503519</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>105</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>7503562</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>7503560</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>7503459</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>7503560</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>70</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-0052-409A-9F8C-897F9F75E2FB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>16 threads</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="x"/>
+                  <c:size val="4"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$350:$B$435</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="86"/>
+                      <c:pt idx="0">
+                        <c:v>7501221</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7476527</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7503351</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7503289</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7500808</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7502966</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7461881</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7501833</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7500873</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7501755</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>7492445</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>7083387</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>7023087</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6220576</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4344734</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3690498</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>7503301</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>7501044</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>7503512</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>7499570</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7496184</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>7503463</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>7503328</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>7503498</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>7502822</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>7495211</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>7503072</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>7494712</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>7300969</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>6720836</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>310210</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>610124</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>855</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>7503549</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>7503463</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>7503549</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>7503430</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>7503174</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>7503518</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>7503458</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>7502885</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>7503516</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>7503292</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>7503345</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>7496979</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>7315207</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>7493747</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2205893</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>7503467</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>7503554</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>7499302</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>7503559</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>7502595</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>7503560</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>7503528</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>7503547</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>7502619</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>7503514</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>7503557</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>7503556</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>7494410</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>7503555</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>6693924</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>7503531</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>7503368</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>7502787</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>7503560</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>7503562</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>7503562</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>7503527</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>7503551</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>7495193</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>7477772</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>7503348</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>7503562</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>7503560</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>7482854</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>7501630</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>7503560</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>7478327</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>70</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-0052-409A-9F8C-897F9F75E2FB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="567292096"/>
@@ -4398,7 +4582,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>44.11978354</c:v>
+                  <c:v>13.615709262999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4432,7 +4616,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24.341436389999998</c:v>
+                  <c:v>23.276559454000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4466,7 +4650,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19.064709863000001</c:v>
+                  <c:v>19.999344011000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4500,7 +4684,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20.984604702999999</c:v>
+                  <c:v>16.601160334999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4534,7 +4718,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20.314652165999998</c:v>
+                  <c:v>18.121898926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5807,7 +5991,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5818,7 +6002,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6396,8 +6580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C479"/>
   <sheetViews>
-    <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A242" workbookViewId="0">
+      <selection sqref="A1:A437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6407,7 +6591,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -6415,7 +6599,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <f>_xlfn.NUMBERVALUE(MID(A2,FIND("is",$A2)+3,FIND(".",A2)-FIND("is",$A2)-3))</f>
@@ -6427,11 +6611,11 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">_xlfn.NUMBERVALUE(MID(A3,FIND("is",$A3)+3,FIND(".",A3)-FIND("is",$A3)-3))</f>
-        <v>3690498</v>
+        <v>2060141</v>
       </c>
       <c r="C3">
         <f>C2+1</f>
@@ -6440,11 +6624,11 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>7083387</v>
+        <v>310210</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="1">C3+1</f>
@@ -6453,11 +6637,11 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>6220576</v>
+        <v>26054</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -6466,11 +6650,11 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>310210</v>
+        <v>23922</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -6479,11 +6663,11 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>4186252</v>
+        <v>23922</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -6492,11 +6676,11 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>7023087</v>
+        <v>20878</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -6505,11 +6689,11 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>7476527</v>
+        <v>20105</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -6518,11 +6702,11 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>20878</v>
+        <v>835</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -6531,11 +6715,11 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>5074749</v>
+        <v>835</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -6544,11 +6728,11 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>7500873</v>
+        <v>835</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -6557,11 +6741,11 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>7501755</v>
+        <v>540</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -6570,11 +6754,11 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>835</v>
+        <v>540</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -6583,11 +6767,11 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>7500816</v>
+        <v>540</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -6596,11 +6780,11 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>7500808</v>
+        <v>540</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -6609,11 +6793,11 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>7501221</v>
+        <v>540</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -6622,11 +6806,11 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>834</v>
+        <v>540</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -6635,11 +6819,11 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>7495009</v>
+        <v>540</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -6648,11 +6832,11 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>7461881</v>
+        <v>540</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -6661,11 +6845,11 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>7502966</v>
+        <v>540</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -6674,11 +6858,11 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>831</v>
+        <v>539</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -6687,11 +6871,11 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>7493129</v>
+        <v>539</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -6700,11 +6884,11 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>7503289</v>
+        <v>539</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -6717,7 +6901,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>7503351</v>
+        <v>539</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -6726,7 +6910,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -6739,11 +6923,11 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>7502822</v>
+        <v>539</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -6752,11 +6936,11 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>7501833</v>
+        <v>539</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -6765,11 +6949,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>7492445</v>
+        <v>539</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -6778,11 +6962,11 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>536</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -6791,11 +6975,11 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>7494194</v>
+        <v>536</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -6804,11 +6988,11 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>7503072</v>
+        <v>167</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -6821,7 +7005,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>7503301</v>
+        <v>167</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -6830,7 +7014,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -6843,11 +7027,11 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>7502885</v>
+        <v>167</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -6856,11 +7040,11 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>7503463</v>
+        <v>167</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -6869,11 +7053,11 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>7503328</v>
+        <v>165</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -6882,11 +7066,11 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -6895,11 +7079,11 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>7503174</v>
+        <v>165</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -6908,11 +7092,11 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>7501044</v>
+        <v>165</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -6921,11 +7105,11 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>7499570</v>
+        <v>165</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -6934,11 +7118,11 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -6947,11 +7131,11 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>7498709</v>
+        <v>165</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -6960,11 +7144,11 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>7503498</v>
+        <v>149</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -6977,7 +7161,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>7503512</v>
+        <v>149</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -6986,7 +7170,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
@@ -6999,11 +7183,11 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>7503458</v>
+        <v>149</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -7012,11 +7196,11 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>7503516</v>
+        <v>149</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -7025,11 +7209,11 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>7503430</v>
+        <v>149</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -7038,7 +7222,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
@@ -7051,11 +7235,11 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>7503458</v>
+        <v>149</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -7064,11 +7248,11 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>7503292</v>
+        <v>149</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -7077,11 +7261,11 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>7503345</v>
+        <v>149</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -7090,7 +7274,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
@@ -7103,11 +7287,11 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>7502240</v>
+        <v>114</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
@@ -7116,11 +7300,11 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>7503518</v>
+        <v>114</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
@@ -7129,11 +7313,11 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>7503463</v>
+        <v>114</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
@@ -7142,7 +7326,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
@@ -7155,11 +7339,11 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>7503294</v>
+        <v>107</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
@@ -7172,7 +7356,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>7503528</v>
+        <v>107</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
@@ -7185,7 +7369,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>7503528</v>
+        <v>107</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
@@ -7194,7 +7378,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
@@ -7211,7 +7395,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>7503528</v>
+        <v>107</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
@@ -7220,11 +7404,11 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>7503514</v>
+        <v>107</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
@@ -7233,11 +7417,11 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>7503554</v>
+        <v>107</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
@@ -7246,7 +7430,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
@@ -7259,11 +7443,11 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B130" si="2">_xlfn.NUMBERVALUE(MID(A67,FIND("is",$A67)+3,FIND(".",A67)-FIND("is",$A67)-3))</f>
-        <v>7503520</v>
+        <v>107</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
@@ -7272,11 +7456,11 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B68">
         <f t="shared" si="2"/>
-        <v>7503556</v>
+        <v>107</v>
       </c>
       <c r="C68">
         <f t="shared" ref="C68:C131" si="3">C67+1</f>
@@ -7285,11 +7469,11 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <f t="shared" si="2"/>
-        <v>7503557</v>
+        <v>105</v>
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
@@ -7298,11 +7482,11 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
@@ -7311,11 +7495,11 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B71">
         <f t="shared" si="2"/>
-        <v>7503527</v>
+        <v>105</v>
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
@@ -7324,11 +7508,11 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B72">
         <f t="shared" si="2"/>
-        <v>7503547</v>
+        <v>105</v>
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
@@ -7341,7 +7525,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="2"/>
-        <v>7503559</v>
+        <v>105</v>
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
@@ -7350,7 +7534,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74">
         <f t="shared" si="2"/>
@@ -7363,11 +7547,11 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B75">
         <f t="shared" si="2"/>
-        <v>7503521</v>
+        <v>103</v>
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
@@ -7376,11 +7560,11 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B76">
         <f t="shared" si="2"/>
-        <v>7503554</v>
+        <v>103</v>
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
@@ -7389,11 +7573,11 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B77">
         <f t="shared" si="2"/>
-        <v>7503555</v>
+        <v>74</v>
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
@@ -7402,11 +7586,11 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B78">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
@@ -7415,11 +7599,11 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B79">
         <f t="shared" si="2"/>
-        <v>7503545</v>
+        <v>70</v>
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
@@ -7428,11 +7612,11 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="B80">
         <f t="shared" si="2"/>
-        <v>7503560</v>
+        <v>70</v>
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
@@ -7441,11 +7625,11 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="B81">
         <f t="shared" si="2"/>
-        <v>7503562</v>
+        <v>70</v>
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
@@ -7467,11 +7651,11 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="B83">
         <f t="shared" si="2"/>
-        <v>7503560</v>
+        <v>70</v>
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
@@ -7480,11 +7664,11 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="B84">
         <f t="shared" si="2"/>
-        <v>7503562</v>
+        <v>70</v>
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
@@ -7506,11 +7690,11 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="B86">
         <f t="shared" si="2"/>
-        <v>7503562</v>
+        <v>70</v>
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
@@ -7532,7 +7716,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>44.11978354</v>
+        <v>13.615709262999999</v>
       </c>
       <c r="B88" t="e">
         <f t="shared" si="2"/>
@@ -7545,7 +7729,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B89">
         <f t="shared" si="2"/>
@@ -7558,7 +7742,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90">
         <f t="shared" si="2"/>
@@ -7571,7 +7755,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91">
         <f t="shared" si="2"/>
@@ -7588,7 +7772,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="2"/>
-        <v>6220576</v>
+        <v>310210</v>
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
@@ -7597,11 +7781,11 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B93">
         <f t="shared" si="2"/>
-        <v>310210</v>
+        <v>23922</v>
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
@@ -7610,11 +7794,11 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B94">
         <f t="shared" si="2"/>
-        <v>4186252</v>
+        <v>6220576</v>
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
@@ -7623,11 +7807,11 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B95">
         <f t="shared" si="2"/>
-        <v>7023087</v>
+        <v>20878</v>
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
@@ -7636,11 +7820,11 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B96">
         <f t="shared" si="2"/>
-        <v>7476527</v>
+        <v>7023087</v>
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
@@ -7649,11 +7833,11 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B97">
         <f t="shared" si="2"/>
-        <v>20878</v>
+        <v>835</v>
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
@@ -7662,11 +7846,11 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B98">
         <f t="shared" si="2"/>
-        <v>7500873</v>
+        <v>7476527</v>
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
@@ -7679,7 +7863,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="2"/>
-        <v>7501755</v>
+        <v>835</v>
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
@@ -7692,7 +7876,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="2"/>
-        <v>5074749</v>
+        <v>7500873</v>
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
@@ -7701,11 +7885,11 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="B101">
         <f t="shared" si="2"/>
-        <v>835</v>
+        <v>540</v>
       </c>
       <c r="C101">
         <f t="shared" si="3"/>
@@ -7714,11 +7898,11 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B102">
         <f t="shared" si="2"/>
-        <v>7500808</v>
+        <v>7501755</v>
       </c>
       <c r="C102">
         <f t="shared" si="3"/>
@@ -7727,11 +7911,11 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B103">
         <f t="shared" si="2"/>
-        <v>7500816</v>
+        <v>540</v>
       </c>
       <c r="C103">
         <f t="shared" si="3"/>
@@ -7740,11 +7924,11 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B104">
         <f t="shared" si="2"/>
-        <v>7501221</v>
+        <v>7500808</v>
       </c>
       <c r="C104">
         <f t="shared" si="3"/>
@@ -7753,11 +7937,11 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B105">
         <f t="shared" si="2"/>
-        <v>834</v>
+        <v>540</v>
       </c>
       <c r="C105">
         <f t="shared" si="3"/>
@@ -7766,11 +7950,11 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B106">
         <f t="shared" si="2"/>
-        <v>7461881</v>
+        <v>7501221</v>
       </c>
       <c r="C106">
         <f t="shared" si="3"/>
@@ -7779,11 +7963,11 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B107">
         <f t="shared" si="2"/>
-        <v>7495009</v>
+        <v>540</v>
       </c>
       <c r="C107">
         <f t="shared" si="3"/>
@@ -7792,11 +7976,11 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B108">
         <f t="shared" si="2"/>
-        <v>7502966</v>
+        <v>7461881</v>
       </c>
       <c r="C108">
         <f t="shared" si="3"/>
@@ -7805,11 +7989,11 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B109">
         <f t="shared" si="2"/>
-        <v>831</v>
+        <v>539</v>
       </c>
       <c r="C109">
         <f t="shared" si="3"/>
@@ -7818,11 +8002,11 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B110">
         <f t="shared" si="2"/>
-        <v>7503289</v>
+        <v>7502966</v>
       </c>
       <c r="C110">
         <f t="shared" si="3"/>
@@ -7831,11 +8015,11 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B111">
         <f t="shared" si="2"/>
-        <v>7493129</v>
+        <v>539</v>
       </c>
       <c r="C111">
         <f t="shared" si="3"/>
@@ -7844,11 +8028,11 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B112">
         <f t="shared" si="2"/>
-        <v>7503351</v>
+        <v>7503289</v>
       </c>
       <c r="C112">
         <f t="shared" si="3"/>
@@ -7857,7 +8041,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B113">
         <f t="shared" si="2"/>
@@ -7870,11 +8054,11 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B114">
         <f t="shared" si="2"/>
-        <v>7502822</v>
+        <v>7503351</v>
       </c>
       <c r="C114">
         <f t="shared" si="3"/>
@@ -7883,11 +8067,11 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B115">
         <f t="shared" si="2"/>
-        <v>7501833</v>
+        <v>539</v>
       </c>
       <c r="C115">
         <f t="shared" si="3"/>
@@ -7896,11 +8080,11 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B116">
         <f t="shared" si="2"/>
-        <v>7492445</v>
+        <v>7501833</v>
       </c>
       <c r="C116">
         <f t="shared" si="3"/>
@@ -7909,11 +8093,11 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B117">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>536</v>
       </c>
       <c r="C117">
         <f t="shared" si="3"/>
@@ -7922,11 +8106,11 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B118">
         <f t="shared" si="2"/>
-        <v>7494194</v>
+        <v>7492445</v>
       </c>
       <c r="C118">
         <f t="shared" si="3"/>
@@ -7935,11 +8119,11 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B119">
         <f t="shared" si="2"/>
-        <v>7503072</v>
+        <v>167</v>
       </c>
       <c r="C119">
         <f t="shared" si="3"/>
@@ -7948,11 +8132,11 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B120">
         <f t="shared" si="2"/>
-        <v>7503301</v>
+        <v>7503072</v>
       </c>
       <c r="C120">
         <f t="shared" si="3"/>
@@ -7961,7 +8145,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B121">
         <f t="shared" si="2"/>
@@ -7974,11 +8158,11 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B122">
         <f t="shared" si="2"/>
-        <v>7502885</v>
+        <v>7503301</v>
       </c>
       <c r="C122">
         <f t="shared" si="3"/>
@@ -7987,11 +8171,11 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B123">
         <f t="shared" si="2"/>
-        <v>7503463</v>
+        <v>167</v>
       </c>
       <c r="C123">
         <f t="shared" si="3"/>
@@ -8000,11 +8184,11 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B124">
         <f t="shared" si="2"/>
-        <v>7503328</v>
+        <v>7503463</v>
       </c>
       <c r="C124">
         <f t="shared" si="3"/>
@@ -8013,11 +8197,11 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B125">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C125">
         <f t="shared" si="3"/>
@@ -8026,11 +8210,11 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B126">
         <f t="shared" si="2"/>
-        <v>7503174</v>
+        <v>7503328</v>
       </c>
       <c r="C126">
         <f t="shared" si="3"/>
@@ -8039,11 +8223,11 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B127">
         <f t="shared" si="2"/>
-        <v>7501044</v>
+        <v>165</v>
       </c>
       <c r="C127">
         <f t="shared" si="3"/>
@@ -8052,11 +8236,11 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B128">
         <f t="shared" si="2"/>
-        <v>7499570</v>
+        <v>7501044</v>
       </c>
       <c r="C128">
         <f t="shared" si="3"/>
@@ -8065,11 +8249,11 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B129">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C129">
         <f t="shared" si="3"/>
@@ -8078,11 +8262,11 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B130">
         <f t="shared" si="2"/>
-        <v>7498709</v>
+        <v>7499570</v>
       </c>
       <c r="C130">
         <f t="shared" si="3"/>
@@ -8091,11 +8275,11 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B131">
         <f t="shared" ref="B131:B194" si="4">_xlfn.NUMBERVALUE(MID(A131,FIND("is",$A131)+3,FIND(".",A131)-FIND("is",$A131)-3))</f>
-        <v>7503498</v>
+        <v>149</v>
       </c>
       <c r="C131">
         <f t="shared" si="3"/>
@@ -8104,11 +8288,11 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B132">
         <f t="shared" si="4"/>
-        <v>7503512</v>
+        <v>7503498</v>
       </c>
       <c r="C132">
         <f t="shared" ref="C132:C195" si="5">C131+1</f>
@@ -8117,7 +8301,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B133">
         <f t="shared" si="4"/>
@@ -8130,11 +8314,11 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B134">
         <f t="shared" si="4"/>
-        <v>7503458</v>
+        <v>7503512</v>
       </c>
       <c r="C134">
         <f t="shared" si="5"/>
@@ -8143,11 +8327,11 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B135">
         <f t="shared" si="4"/>
-        <v>7503516</v>
+        <v>149</v>
       </c>
       <c r="C135">
         <f t="shared" si="5"/>
@@ -8156,11 +8340,11 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B136">
         <f t="shared" si="4"/>
-        <v>7503430</v>
+        <v>7503516</v>
       </c>
       <c r="C136">
         <f t="shared" si="5"/>
@@ -8169,7 +8353,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B137">
         <f t="shared" si="4"/>
@@ -8182,11 +8366,11 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B138">
         <f t="shared" si="4"/>
-        <v>7503458</v>
+        <v>7503430</v>
       </c>
       <c r="C138">
         <f t="shared" si="5"/>
@@ -8195,11 +8379,11 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B139">
         <f t="shared" si="4"/>
-        <v>7503292</v>
+        <v>149</v>
       </c>
       <c r="C139">
         <f t="shared" si="5"/>
@@ -8208,11 +8392,11 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B140">
         <f t="shared" si="4"/>
-        <v>7503345</v>
+        <v>7503292</v>
       </c>
       <c r="C140">
         <f t="shared" si="5"/>
@@ -8221,7 +8405,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B141">
         <f t="shared" si="4"/>
@@ -8234,11 +8418,11 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B142">
         <f t="shared" si="4"/>
-        <v>7503518</v>
+        <v>7503345</v>
       </c>
       <c r="C142">
         <f t="shared" si="5"/>
@@ -8247,11 +8431,11 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B143">
         <f t="shared" si="4"/>
-        <v>7502240</v>
+        <v>114</v>
       </c>
       <c r="C143">
         <f t="shared" si="5"/>
@@ -8260,11 +8444,11 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B144">
         <f t="shared" si="4"/>
-        <v>7503463</v>
+        <v>7503518</v>
       </c>
       <c r="C144">
         <f t="shared" si="5"/>
@@ -8273,7 +8457,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B145">
         <f t="shared" si="4"/>
@@ -8286,11 +8470,11 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B146">
         <f t="shared" si="4"/>
-        <v>7503294</v>
+        <v>7503463</v>
       </c>
       <c r="C146">
         <f t="shared" si="5"/>
@@ -8303,7 +8487,7 @@
       </c>
       <c r="B147">
         <f t="shared" si="4"/>
-        <v>7503528</v>
+        <v>107</v>
       </c>
       <c r="C147">
         <f t="shared" si="5"/>
@@ -8312,7 +8496,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B148">
         <f t="shared" si="4"/>
@@ -8325,7 +8509,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B149">
         <f t="shared" si="4"/>
@@ -8338,7 +8522,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B150">
         <f t="shared" si="4"/>
@@ -8351,11 +8535,11 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B151">
         <f t="shared" si="4"/>
-        <v>7503514</v>
+        <v>107</v>
       </c>
       <c r="C151">
         <f t="shared" si="5"/>
@@ -8364,11 +8548,11 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B152">
         <f t="shared" si="4"/>
-        <v>7503554</v>
+        <v>7503514</v>
       </c>
       <c r="C152">
         <f t="shared" si="5"/>
@@ -8377,7 +8561,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B153">
         <f t="shared" si="4"/>
@@ -8390,11 +8574,11 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B154">
         <f t="shared" si="4"/>
-        <v>7503520</v>
+        <v>7503554</v>
       </c>
       <c r="C154">
         <f t="shared" si="5"/>
@@ -8403,11 +8587,11 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B155">
         <f t="shared" si="4"/>
-        <v>7503556</v>
+        <v>107</v>
       </c>
       <c r="C155">
         <f t="shared" si="5"/>
@@ -8416,11 +8600,11 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B156">
         <f t="shared" si="4"/>
-        <v>7503557</v>
+        <v>7503556</v>
       </c>
       <c r="C156">
         <f t="shared" si="5"/>
@@ -8429,11 +8613,11 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B157">
         <f t="shared" si="4"/>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C157">
         <f t="shared" si="5"/>
@@ -8442,11 +8626,11 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B158">
         <f t="shared" si="4"/>
-        <v>7503527</v>
+        <v>7503557</v>
       </c>
       <c r="C158">
         <f t="shared" si="5"/>
@@ -8455,11 +8639,11 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B159">
         <f t="shared" si="4"/>
-        <v>7503547</v>
+        <v>105</v>
       </c>
       <c r="C159">
         <f t="shared" si="5"/>
@@ -8468,11 +8652,11 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B160">
         <f t="shared" si="4"/>
-        <v>7503559</v>
+        <v>7503547</v>
       </c>
       <c r="C160">
         <f t="shared" si="5"/>
@@ -8481,7 +8665,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B161">
         <f t="shared" si="4"/>
@@ -8494,11 +8678,11 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B162">
         <f t="shared" si="4"/>
-        <v>7503521</v>
+        <v>7503559</v>
       </c>
       <c r="C162">
         <f t="shared" si="5"/>
@@ -8507,11 +8691,11 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B163">
         <f t="shared" si="4"/>
-        <v>7503554</v>
+        <v>103</v>
       </c>
       <c r="C163">
         <f t="shared" si="5"/>
@@ -8520,11 +8704,11 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B164">
         <f t="shared" si="4"/>
-        <v>7503555</v>
+        <v>7503554</v>
       </c>
       <c r="C164">
         <f t="shared" si="5"/>
@@ -8533,11 +8717,11 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B165">
         <f t="shared" si="4"/>
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C165">
         <f t="shared" si="5"/>
@@ -8546,11 +8730,11 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B166">
         <f t="shared" si="4"/>
-        <v>7503545</v>
+        <v>7503555</v>
       </c>
       <c r="C166">
         <f t="shared" si="5"/>
@@ -8559,11 +8743,11 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="B167">
         <f t="shared" si="4"/>
-        <v>7503560</v>
+        <v>70</v>
       </c>
       <c r="C167">
         <f t="shared" si="5"/>
@@ -8572,11 +8756,11 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B168">
         <f t="shared" si="4"/>
-        <v>7503562</v>
+        <v>7503560</v>
       </c>
       <c r="C168">
         <f t="shared" si="5"/>
@@ -8602,7 +8786,7 @@
       </c>
       <c r="B170">
         <f t="shared" si="4"/>
-        <v>7503560</v>
+        <v>7503562</v>
       </c>
       <c r="C170">
         <f t="shared" si="5"/>
@@ -8611,11 +8795,11 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="B171">
         <f t="shared" si="4"/>
-        <v>7503562</v>
+        <v>70</v>
       </c>
       <c r="C171">
         <f t="shared" si="5"/>
@@ -8624,11 +8808,11 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B172">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>7503562</v>
       </c>
       <c r="C172">
         <f t="shared" si="5"/>
@@ -8637,11 +8821,11 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="B173">
         <f t="shared" si="4"/>
-        <v>7503562</v>
+        <v>70</v>
       </c>
       <c r="C173">
         <f t="shared" si="5"/>
@@ -8663,7 +8847,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>24.341436389999998</v>
+        <v>23.276559454000001</v>
       </c>
       <c r="B175" t="e">
         <f t="shared" si="4"/>
@@ -8676,11 +8860,11 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B176">
         <f t="shared" si="4"/>
-        <v>6220576</v>
+        <v>7083387</v>
       </c>
       <c r="C176">
         <f t="shared" si="5"/>
@@ -8693,7 +8877,7 @@
       </c>
       <c r="B177">
         <f t="shared" si="4"/>
-        <v>7083387</v>
+        <v>6220576</v>
       </c>
       <c r="C177">
         <f t="shared" si="5"/>
@@ -8702,7 +8886,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B178">
         <f t="shared" si="4"/>
@@ -8715,7 +8899,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B179">
         <f t="shared" si="4"/>
@@ -8728,7 +8912,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B180">
         <f t="shared" si="4"/>
@@ -8741,7 +8925,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B181">
         <f t="shared" si="4"/>
@@ -8754,7 +8938,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B182">
         <f t="shared" si="4"/>
@@ -8767,7 +8951,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B183">
         <f t="shared" si="4"/>
@@ -8780,7 +8964,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B184">
         <f t="shared" si="4"/>
@@ -8793,7 +8977,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B185">
         <f t="shared" si="4"/>
@@ -8806,7 +8990,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B186">
         <f t="shared" si="4"/>
@@ -8819,7 +9003,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B187">
         <f t="shared" si="4"/>
@@ -8832,7 +9016,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B188">
         <f t="shared" si="4"/>
@@ -8849,7 +9033,7 @@
       </c>
       <c r="B189">
         <f t="shared" si="4"/>
-        <v>7500808</v>
+        <v>7501221</v>
       </c>
       <c r="C189">
         <f t="shared" si="5"/>
@@ -8858,11 +9042,11 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B190">
         <f t="shared" si="4"/>
-        <v>7501221</v>
+        <v>7500808</v>
       </c>
       <c r="C190">
         <f t="shared" si="5"/>
@@ -8871,7 +9055,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B191">
         <f t="shared" si="4"/>
@@ -8884,7 +9068,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B192">
         <f t="shared" si="4"/>
@@ -8897,7 +9081,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B193">
         <f t="shared" si="4"/>
@@ -8910,7 +9094,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B194">
         <f t="shared" si="4"/>
@@ -8923,7 +9107,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B195">
         <f t="shared" ref="B195:B258" si="6">_xlfn.NUMBERVALUE(MID(A195,FIND("is",$A195)+3,FIND(".",A195)-FIND("is",$A195)-3))</f>
@@ -8936,7 +9120,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B196">
         <f t="shared" si="6"/>
@@ -8949,11 +9133,11 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B197">
         <f t="shared" si="6"/>
-        <v>7503289</v>
+        <v>7503351</v>
       </c>
       <c r="C197">
         <f t="shared" si="7"/>
@@ -8962,11 +9146,11 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B198">
         <f t="shared" si="6"/>
-        <v>7503351</v>
+        <v>7503289</v>
       </c>
       <c r="C198">
         <f t="shared" si="7"/>
@@ -8975,7 +9159,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B199">
         <f t="shared" si="6"/>
@@ -8988,7 +9172,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B200">
         <f t="shared" si="6"/>
@@ -9001,7 +9185,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B201">
         <f t="shared" si="6"/>
@@ -9014,7 +9198,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B202">
         <f t="shared" si="6"/>
@@ -9027,7 +9211,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B203">
         <f t="shared" si="6"/>
@@ -9040,7 +9224,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B204">
         <f t="shared" si="6"/>
@@ -9053,7 +9237,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B205">
         <f t="shared" si="6"/>
@@ -9066,7 +9250,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B206">
         <f t="shared" si="6"/>
@@ -9079,7 +9263,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B207">
         <f t="shared" si="6"/>
@@ -9092,7 +9276,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B208">
         <f t="shared" si="6"/>
@@ -9105,7 +9289,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B209">
         <f t="shared" si="6"/>
@@ -9118,7 +9302,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B210">
         <f t="shared" si="6"/>
@@ -9131,7 +9315,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B211">
         <f t="shared" si="6"/>
@@ -9144,7 +9328,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B212">
         <f t="shared" si="6"/>
@@ -9157,7 +9341,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B213">
         <f t="shared" si="6"/>
@@ -9170,7 +9354,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B214">
         <f t="shared" si="6"/>
@@ -9183,7 +9367,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B215">
         <f t="shared" si="6"/>
@@ -9196,7 +9380,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B216">
         <f t="shared" si="6"/>
@@ -9209,11 +9393,11 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B217">
         <f t="shared" si="6"/>
-        <v>7503512</v>
+        <v>7503498</v>
       </c>
       <c r="C217">
         <f t="shared" si="7"/>
@@ -9226,7 +9410,7 @@
       </c>
       <c r="B218">
         <f t="shared" si="6"/>
-        <v>7503498</v>
+        <v>7503512</v>
       </c>
       <c r="C218">
         <f t="shared" si="7"/>
@@ -9235,7 +9419,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B219">
         <f t="shared" si="6"/>
@@ -9248,7 +9432,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B220">
         <f t="shared" si="6"/>
@@ -9261,11 +9445,11 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B221">
         <f t="shared" si="6"/>
-        <v>7503458</v>
+        <v>7503430</v>
       </c>
       <c r="C221">
         <f t="shared" si="7"/>
@@ -9274,11 +9458,11 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B222">
         <f t="shared" si="6"/>
-        <v>7503430</v>
+        <v>7503458</v>
       </c>
       <c r="C222">
         <f t="shared" si="7"/>
@@ -9287,7 +9471,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B223">
         <f t="shared" si="6"/>
@@ -9300,7 +9484,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B224">
         <f t="shared" si="6"/>
@@ -9313,11 +9497,11 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B225">
         <f t="shared" si="6"/>
-        <v>7503292</v>
+        <v>7503458</v>
       </c>
       <c r="C225">
         <f t="shared" si="7"/>
@@ -9326,11 +9510,11 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B226">
         <f t="shared" si="6"/>
-        <v>7503345</v>
+        <v>7503292</v>
       </c>
       <c r="C226">
         <f t="shared" si="7"/>
@@ -9339,11 +9523,11 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B227">
         <f t="shared" si="6"/>
-        <v>7503458</v>
+        <v>7503345</v>
       </c>
       <c r="C227">
         <f t="shared" si="7"/>
@@ -9352,7 +9536,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B228">
         <f t="shared" si="6"/>
@@ -9365,7 +9549,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B229">
         <f t="shared" si="6"/>
@@ -9378,7 +9562,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B230">
         <f t="shared" si="6"/>
@@ -9391,7 +9575,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B231">
         <f t="shared" si="6"/>
@@ -9404,7 +9588,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B232">
         <f t="shared" si="6"/>
@@ -9417,11 +9601,11 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B233">
         <f t="shared" si="6"/>
-        <v>7503528</v>
+        <v>7503294</v>
       </c>
       <c r="C233">
         <f t="shared" si="7"/>
@@ -9430,7 +9614,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B234">
         <f t="shared" si="6"/>
@@ -9447,7 +9631,7 @@
       </c>
       <c r="B235">
         <f t="shared" si="6"/>
-        <v>7503294</v>
+        <v>7503528</v>
       </c>
       <c r="C235">
         <f t="shared" si="7"/>
@@ -9456,7 +9640,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B236">
         <f t="shared" si="6"/>
@@ -9469,7 +9653,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B237">
         <f t="shared" si="6"/>
@@ -9482,11 +9666,11 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B238">
         <f t="shared" si="6"/>
-        <v>7503514</v>
+        <v>7503528</v>
       </c>
       <c r="C238">
         <f t="shared" si="7"/>
@@ -9495,11 +9679,11 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B239">
         <f t="shared" si="6"/>
-        <v>7503528</v>
+        <v>7503514</v>
       </c>
       <c r="C239">
         <f t="shared" si="7"/>
@@ -9508,7 +9692,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B240">
         <f t="shared" si="6"/>
@@ -9521,7 +9705,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B241">
         <f t="shared" si="6"/>
@@ -9534,7 +9718,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B242">
         <f t="shared" si="6"/>
@@ -9547,7 +9731,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B243">
         <f t="shared" si="6"/>
@@ -9560,7 +9744,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
@@ -9573,7 +9757,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
@@ -9586,7 +9770,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
@@ -9599,7 +9783,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
@@ -9612,7 +9796,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
@@ -9625,11 +9809,11 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
-        <v>7503554</v>
+        <v>7503521</v>
       </c>
       <c r="C249">
         <f t="shared" si="7"/>
@@ -9638,11 +9822,11 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
-        <v>7503521</v>
+        <v>7503554</v>
       </c>
       <c r="C250">
         <f t="shared" si="7"/>
@@ -9651,7 +9835,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
@@ -9664,7 +9848,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
@@ -9677,7 +9861,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
@@ -9690,7 +9874,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
@@ -9703,7 +9887,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
@@ -9729,7 +9913,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
@@ -9742,7 +9926,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B258">
         <f t="shared" si="6"/>
@@ -9768,7 +9952,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B260">
         <f t="shared" si="8"/>
@@ -9794,7 +9978,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>19.064709863000001</v>
+        <v>19.999344011000002</v>
       </c>
       <c r="B262" t="e">
         <f t="shared" si="8"/>
@@ -9807,11 +9991,11 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B263">
         <f t="shared" si="8"/>
-        <v>4344734</v>
+        <v>7476527</v>
       </c>
       <c r="C263">
         <f t="shared" si="9"/>
@@ -9820,11 +10004,11 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B264">
         <f t="shared" si="8"/>
-        <v>7083387</v>
+        <v>7501755</v>
       </c>
       <c r="C264">
         <f t="shared" si="9"/>
@@ -9833,11 +10017,11 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B265">
         <f t="shared" si="8"/>
-        <v>6220576</v>
+        <v>7500873</v>
       </c>
       <c r="C265">
         <f t="shared" si="9"/>
@@ -9846,11 +10030,11 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B266">
         <f t="shared" si="8"/>
-        <v>3690498</v>
+        <v>7023087</v>
       </c>
       <c r="C266">
         <f t="shared" si="9"/>
@@ -9859,11 +10043,11 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>7476527</v>
+        <v>7083387</v>
       </c>
       <c r="C267">
         <f t="shared" si="9"/>
@@ -9872,11 +10056,11 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>7023087</v>
+        <v>6220576</v>
       </c>
       <c r="C268">
         <f t="shared" si="9"/>
@@ -9885,11 +10069,11 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>310210</v>
+        <v>4344734</v>
       </c>
       <c r="C269">
         <f t="shared" si="9"/>
@@ -9898,11 +10082,11 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>4186252</v>
+        <v>3690498</v>
       </c>
       <c r="C270">
         <f t="shared" si="9"/>
@@ -9911,11 +10095,11 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B271">
         <f t="shared" si="8"/>
-        <v>20878</v>
+        <v>7500808</v>
       </c>
       <c r="C271">
         <f t="shared" si="9"/>
@@ -9924,11 +10108,11 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B272">
         <f t="shared" si="8"/>
-        <v>7501755</v>
+        <v>7502966</v>
       </c>
       <c r="C272">
         <f t="shared" si="9"/>
@@ -9937,11 +10121,11 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>7500873</v>
+        <v>7501221</v>
       </c>
       <c r="C273">
         <f t="shared" si="9"/>
@@ -9950,11 +10134,11 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>5074749</v>
+        <v>7461881</v>
       </c>
       <c r="C274">
         <f t="shared" si="9"/>
@@ -9967,7 +10151,7 @@
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>835</v>
+        <v>7500816</v>
       </c>
       <c r="C275">
         <f t="shared" si="9"/>
@@ -9976,11 +10160,11 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>7501221</v>
+        <v>7065385</v>
       </c>
       <c r="C276">
         <f t="shared" si="9"/>
@@ -9989,11 +10173,11 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>7500808</v>
+        <v>310210</v>
       </c>
       <c r="C277">
         <f t="shared" si="9"/>
@@ -10002,11 +10186,11 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>7500816</v>
+        <v>610124</v>
       </c>
       <c r="C278">
         <f t="shared" si="9"/>
@@ -10015,11 +10199,11 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>834</v>
+        <v>855</v>
       </c>
       <c r="C279">
         <f t="shared" si="9"/>
@@ -10028,11 +10212,11 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>7502966</v>
+        <v>7501833</v>
       </c>
       <c r="C280">
         <f t="shared" si="9"/>
@@ -10041,11 +10225,11 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>7461881</v>
+        <v>7503351</v>
       </c>
       <c r="C281">
         <f t="shared" si="9"/>
@@ -10054,11 +10238,11 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>7495009</v>
+        <v>7503289</v>
       </c>
       <c r="C282">
         <f t="shared" si="9"/>
@@ -10067,11 +10251,11 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>831</v>
+        <v>7499975</v>
       </c>
       <c r="C283">
         <f t="shared" si="9"/>
@@ -10080,11 +10264,11 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>7503289</v>
+        <v>7494645</v>
       </c>
       <c r="C284">
         <f t="shared" si="9"/>
@@ -10093,11 +10277,11 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>7503351</v>
+        <v>7492445</v>
       </c>
       <c r="C285">
         <f t="shared" si="9"/>
@@ -10106,11 +10290,11 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>7493129</v>
+        <v>6703820</v>
       </c>
       <c r="C286">
         <f t="shared" si="9"/>
@@ -10119,11 +10303,11 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B287">
         <f t="shared" si="8"/>
-        <v>539</v>
+        <v>7503328</v>
       </c>
       <c r="C287">
         <f t="shared" si="9"/>
@@ -10132,11 +10316,11 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B288">
         <f t="shared" si="8"/>
-        <v>7502822</v>
+        <v>7503463</v>
       </c>
       <c r="C288">
         <f t="shared" si="9"/>
@@ -10145,11 +10329,11 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B289">
         <f t="shared" si="8"/>
-        <v>7501833</v>
+        <v>831</v>
       </c>
       <c r="C289">
         <f t="shared" si="9"/>
@@ -10158,11 +10342,11 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B290">
         <f t="shared" si="8"/>
-        <v>7492445</v>
+        <v>7503301</v>
       </c>
       <c r="C290">
         <f t="shared" si="9"/>
@@ -10171,11 +10355,11 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B291">
         <f t="shared" si="8"/>
-        <v>169</v>
+        <v>7503072</v>
       </c>
       <c r="C291">
         <f t="shared" si="9"/>
@@ -10184,11 +10368,11 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B292">
         <f t="shared" si="8"/>
-        <v>7503301</v>
+        <v>7502822</v>
       </c>
       <c r="C292">
         <f t="shared" si="9"/>
@@ -10197,11 +10381,11 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B293">
         <f t="shared" si="8"/>
-        <v>7503072</v>
+        <v>7479439</v>
       </c>
       <c r="C293">
         <f t="shared" si="9"/>
@@ -10210,11 +10394,11 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B294">
         <f t="shared" si="8"/>
-        <v>7494194</v>
+        <v>7040626</v>
       </c>
       <c r="C294">
         <f t="shared" si="9"/>
@@ -10223,11 +10407,11 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B295">
         <f t="shared" si="8"/>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C295">
         <f t="shared" si="9"/>
@@ -10236,11 +10420,11 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B296">
         <f t="shared" si="8"/>
-        <v>7503328</v>
+        <v>7503512</v>
       </c>
       <c r="C296">
         <f t="shared" si="9"/>
@@ -10249,11 +10433,11 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B297">
         <f t="shared" si="8"/>
-        <v>7503463</v>
+        <v>7502885</v>
       </c>
       <c r="C297">
         <f t="shared" si="9"/>
@@ -10262,11 +10446,11 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B298">
         <f t="shared" si="8"/>
-        <v>7502885</v>
+        <v>7501044</v>
       </c>
       <c r="C298">
         <f t="shared" si="9"/>
@@ -10275,11 +10459,11 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B299">
         <f t="shared" si="8"/>
-        <v>167</v>
+        <v>7503498</v>
       </c>
       <c r="C299">
         <f t="shared" si="9"/>
@@ -10288,11 +10472,11 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B300">
         <f t="shared" si="8"/>
-        <v>7501044</v>
+        <v>7503174</v>
       </c>
       <c r="C300">
         <f t="shared" si="9"/>
@@ -10301,11 +10485,11 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B301">
         <f t="shared" si="8"/>
-        <v>7503174</v>
+        <v>7499570</v>
       </c>
       <c r="C301">
         <f t="shared" si="9"/>
@@ -10314,11 +10498,11 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B302">
         <f t="shared" si="8"/>
-        <v>7499570</v>
+        <v>7467407</v>
       </c>
       <c r="C302">
         <f t="shared" si="9"/>
@@ -10327,11 +10511,11 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B303">
         <f t="shared" si="8"/>
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C303">
         <f t="shared" si="9"/>
@@ -10340,11 +10524,11 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B304">
         <f t="shared" si="8"/>
-        <v>7503498</v>
+        <v>7503345</v>
       </c>
       <c r="C304">
         <f t="shared" si="9"/>
@@ -10353,11 +10537,11 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B305">
         <f t="shared" si="8"/>
-        <v>7503512</v>
+        <v>7503430</v>
       </c>
       <c r="C305">
         <f t="shared" si="9"/>
@@ -10366,11 +10550,11 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B306">
         <f t="shared" si="8"/>
-        <v>7498709</v>
+        <v>7503458</v>
       </c>
       <c r="C306">
         <f t="shared" si="9"/>
@@ -10379,11 +10563,11 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B307">
         <f t="shared" si="8"/>
-        <v>149</v>
+        <v>7502525</v>
       </c>
       <c r="C307">
         <f t="shared" si="9"/>
@@ -10396,7 +10580,7 @@
       </c>
       <c r="B308">
         <f t="shared" si="8"/>
-        <v>7503430</v>
+        <v>7503292</v>
       </c>
       <c r="C308">
         <f t="shared" si="9"/>
@@ -10409,7 +10593,7 @@
       </c>
       <c r="B309">
         <f t="shared" si="8"/>
-        <v>7503458</v>
+        <v>7503516</v>
       </c>
       <c r="C309">
         <f t="shared" si="9"/>
@@ -10418,11 +10602,11 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B310">
         <f t="shared" si="8"/>
-        <v>7503516</v>
+        <v>7491269</v>
       </c>
       <c r="C310">
         <f t="shared" si="9"/>
@@ -10431,11 +10615,11 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B311">
         <f t="shared" si="8"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C311">
         <f t="shared" si="9"/>
@@ -10444,11 +10628,11 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B312">
         <f t="shared" si="8"/>
-        <v>7503458</v>
+        <v>7503528</v>
       </c>
       <c r="C312">
         <f t="shared" si="9"/>
@@ -10457,61 +10641,61 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B313">
         <f t="shared" si="8"/>
-        <v>7503292</v>
+        <v>7503528</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B314">
         <f t="shared" si="8"/>
-        <v>7503345</v>
+        <v>7503463</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B315">
         <f t="shared" si="8"/>
-        <v>114</v>
+        <v>7503518</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B316">
         <f t="shared" si="8"/>
-        <v>7503518</v>
+        <v>7503458</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B317">
         <f t="shared" si="8"/>
-        <v>7503463</v>
+        <v>7495204</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="B318">
         <f t="shared" si="8"/>
-        <v>7502240</v>
+        <v>7502595</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B319">
         <f t="shared" si="8"/>
@@ -10520,254 +10704,254 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B320">
         <f t="shared" si="8"/>
-        <v>7503528</v>
+        <v>7503514</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B321">
         <f t="shared" si="8"/>
-        <v>7503528</v>
+        <v>7503554</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B322">
         <f t="shared" si="8"/>
-        <v>7503294</v>
+        <v>7503556</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B323">
         <f t="shared" ref="B323:B386" si="10">_xlfn.NUMBERVALUE(MID(A323,FIND("is",$A323)+3,FIND(".",A323)-FIND("is",$A323)-3))</f>
-        <v>107</v>
+        <v>7503557</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B324">
         <f t="shared" si="10"/>
-        <v>7503554</v>
+        <v>7503294</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B325">
         <f t="shared" si="10"/>
-        <v>7503514</v>
+        <v>7503528</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="B326">
         <f t="shared" si="10"/>
-        <v>7503528</v>
+        <v>7499988</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B327">
         <f t="shared" si="10"/>
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B328">
         <f t="shared" si="10"/>
-        <v>7503520</v>
+        <v>7503560</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B329">
         <f t="shared" si="10"/>
-        <v>7503557</v>
+        <v>7503559</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B330">
         <f t="shared" si="10"/>
-        <v>7503556</v>
+        <v>7503527</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B331">
         <f t="shared" si="10"/>
-        <v>107</v>
+        <v>7503556</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B332">
         <f t="shared" si="10"/>
-        <v>7503559</v>
+        <v>7503547</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B333">
         <f t="shared" si="10"/>
-        <v>7503527</v>
+        <v>7502652</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B334">
         <f t="shared" si="10"/>
-        <v>7503547</v>
+        <v>7503520</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B335">
         <f t="shared" si="10"/>
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B336">
         <f t="shared" si="10"/>
-        <v>7503554</v>
+        <v>7503562</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B337">
         <f t="shared" si="10"/>
-        <v>7503521</v>
+        <v>7503560</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B338">
         <f t="shared" si="10"/>
-        <v>7503555</v>
+        <v>7503551</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B339">
         <f t="shared" si="10"/>
-        <v>103</v>
+        <v>7503562</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B340">
         <f t="shared" si="10"/>
-        <v>7503562</v>
+        <v>7502936</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B341">
         <f t="shared" si="10"/>
-        <v>7503560</v>
+        <v>7503519</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B342">
         <f t="shared" si="10"/>
-        <v>7503545</v>
+        <v>105</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B343">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>7503562</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B344">
         <f t="shared" si="10"/>
-        <v>7503562</v>
+        <v>7503560</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B345">
         <f t="shared" si="10"/>
-        <v>7503560</v>
+        <v>7503459</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B346">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B347">
         <f t="shared" si="10"/>
-        <v>7503562</v>
+        <v>7503560</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -10781,7 +10965,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>20.984604702999999</v>
+        <v>16.601160334999999</v>
       </c>
       <c r="B349" t="e">
         <f t="shared" si="10"/>
@@ -10790,79 +10974,79 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B350">
         <f t="shared" si="10"/>
-        <v>7083387</v>
+        <v>7501221</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B351">
         <f t="shared" si="10"/>
-        <v>4344734</v>
+        <v>7476527</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B352">
         <f t="shared" si="10"/>
-        <v>6220576</v>
+        <v>7503351</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B353">
         <f t="shared" si="10"/>
-        <v>3690498</v>
+        <v>7503289</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B354">
         <f t="shared" si="10"/>
-        <v>7476527</v>
+        <v>7500808</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B355">
         <f t="shared" si="10"/>
-        <v>310210</v>
+        <v>7502966</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B356">
         <f t="shared" si="10"/>
-        <v>7023087</v>
+        <v>7461881</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B357">
         <f t="shared" si="10"/>
-        <v>4186252</v>
+        <v>7501833</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B358">
         <f t="shared" si="10"/>
@@ -10871,137 +11055,137 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B359">
         <f t="shared" si="10"/>
-        <v>20878</v>
+        <v>7501755</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B360">
         <f t="shared" si="10"/>
-        <v>7501755</v>
+        <v>7492445</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B361">
         <f t="shared" si="10"/>
-        <v>5074749</v>
+        <v>7083387</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B362">
         <f t="shared" si="10"/>
-        <v>835</v>
+        <v>7023087</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B363">
         <f t="shared" si="10"/>
-        <v>7501221</v>
+        <v>6220576</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B364">
         <f t="shared" si="10"/>
-        <v>7500808</v>
+        <v>4344734</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B365">
         <f t="shared" si="10"/>
-        <v>7500816</v>
+        <v>3690498</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B366">
         <f t="shared" si="10"/>
-        <v>834</v>
+        <v>7503301</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B367">
         <f t="shared" si="10"/>
-        <v>7502966</v>
+        <v>7501044</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B368">
         <f t="shared" si="10"/>
-        <v>7461881</v>
+        <v>7503512</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B369">
         <f t="shared" si="10"/>
-        <v>7495009</v>
+        <v>7499570</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="B370">
         <f t="shared" si="10"/>
-        <v>831</v>
+        <v>7496184</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B371">
         <f t="shared" si="10"/>
-        <v>7503351</v>
+        <v>7503463</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B372">
         <f t="shared" si="10"/>
-        <v>7503289</v>
+        <v>7503328</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B373">
         <f t="shared" si="10"/>
-        <v>7493129</v>
+        <v>7503498</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -11010,93 +11194,93 @@
       </c>
       <c r="B374">
         <f t="shared" si="10"/>
-        <v>539</v>
+        <v>7502822</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="B375">
         <f t="shared" si="10"/>
-        <v>7502822</v>
+        <v>7495211</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B376">
         <f t="shared" si="10"/>
-        <v>7501833</v>
+        <v>7503072</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="B377">
         <f t="shared" si="10"/>
-        <v>7492445</v>
+        <v>7494712</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="B378">
         <f t="shared" si="10"/>
-        <v>169</v>
+        <v>7300969</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="B379">
         <f t="shared" si="10"/>
-        <v>7503301</v>
+        <v>6720836</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B380">
         <f t="shared" si="10"/>
-        <v>7503072</v>
+        <v>310210</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B381">
         <f t="shared" si="10"/>
-        <v>7494194</v>
+        <v>610124</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B382">
         <f t="shared" si="10"/>
-        <v>167</v>
+        <v>855</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="B383">
         <f t="shared" si="10"/>
-        <v>7503328</v>
+        <v>7503549</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B384">
         <f t="shared" si="10"/>
@@ -11105,380 +11289,380 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="B385">
         <f t="shared" si="10"/>
-        <v>7502885</v>
+        <v>7503549</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B386">
         <f t="shared" si="10"/>
-        <v>167</v>
+        <v>7503430</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B387">
         <f t="shared" ref="B387:B450" si="11">_xlfn.NUMBERVALUE(MID(A387,FIND("is",$A387)+3,FIND(".",A387)-FIND("is",$A387)-3))</f>
-        <v>7499570</v>
+        <v>7503174</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B388">
         <f t="shared" si="11"/>
-        <v>7501044</v>
+        <v>7503518</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B389">
         <f t="shared" si="11"/>
-        <v>7503174</v>
+        <v>7503458</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B390">
         <f t="shared" si="11"/>
-        <v>150</v>
+        <v>7502885</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B391">
         <f t="shared" si="11"/>
-        <v>7503512</v>
+        <v>7503516</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B392">
         <f t="shared" si="11"/>
-        <v>7503498</v>
+        <v>7503292</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B393">
         <f t="shared" si="11"/>
-        <v>7498709</v>
+        <v>7503345</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="B394">
         <f t="shared" si="11"/>
-        <v>149</v>
+        <v>7496979</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="B395">
         <f t="shared" si="11"/>
-        <v>7503430</v>
+        <v>7315207</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="B396">
         <f t="shared" si="11"/>
-        <v>7503458</v>
+        <v>7493747</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="B397">
         <f t="shared" si="11"/>
-        <v>7503516</v>
+        <v>2205893</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="B398">
         <f t="shared" si="11"/>
-        <v>149</v>
+        <v>200</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B399">
         <f t="shared" si="11"/>
-        <v>7503458</v>
+        <v>7503467</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B400">
         <f t="shared" si="11"/>
-        <v>7503292</v>
+        <v>7503554</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="B401">
         <f t="shared" si="11"/>
-        <v>7503345</v>
+        <v>7499302</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B402">
         <f t="shared" si="11"/>
-        <v>114</v>
+        <v>7503559</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B403">
         <f t="shared" si="11"/>
-        <v>7503518</v>
+        <v>7502595</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B404">
         <f t="shared" si="11"/>
-        <v>7503463</v>
+        <v>7503560</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B405">
         <f t="shared" si="11"/>
-        <v>7502240</v>
+        <v>7503528</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B406">
         <f t="shared" si="11"/>
-        <v>114</v>
+        <v>7503547</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B407">
         <f t="shared" si="11"/>
-        <v>7503528</v>
+        <v>7502619</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B408">
         <f t="shared" si="11"/>
-        <v>7503528</v>
+        <v>7503514</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B409">
         <f t="shared" si="11"/>
-        <v>7503294</v>
+        <v>7503557</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B410">
         <f t="shared" si="11"/>
-        <v>107</v>
+        <v>7503556</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B411">
         <f t="shared" si="11"/>
-        <v>7503514</v>
+        <v>7494410</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B412">
         <f t="shared" si="11"/>
-        <v>7503554</v>
+        <v>7503555</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B413">
         <f t="shared" si="11"/>
-        <v>7503528</v>
+        <v>6693924</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B414">
         <f t="shared" si="11"/>
-        <v>107</v>
+        <v>7503531</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B415">
         <f t="shared" si="11"/>
-        <v>7503557</v>
+        <v>7503368</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B416">
         <f t="shared" si="11"/>
-        <v>7503520</v>
+        <v>7502787</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B417">
         <f t="shared" si="11"/>
-        <v>7503556</v>
+        <v>150</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B418">
         <f t="shared" si="11"/>
-        <v>107</v>
+        <v>7503560</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B419">
         <f t="shared" si="11"/>
-        <v>7503559</v>
+        <v>7503562</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B420">
         <f t="shared" si="11"/>
-        <v>7503527</v>
+        <v>7503562</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B421">
         <f t="shared" si="11"/>
-        <v>7503547</v>
+        <v>7503527</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B422">
         <f t="shared" si="11"/>
-        <v>105</v>
+        <v>7503551</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B423">
         <f t="shared" si="11"/>
-        <v>7503554</v>
+        <v>7495193</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="B424">
         <f t="shared" si="11"/>
-        <v>7503521</v>
+        <v>7477772</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B425">
         <f t="shared" si="11"/>
-        <v>7503555</v>
+        <v>114</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="B426">
         <f t="shared" si="11"/>
-        <v>103</v>
+        <v>7503348</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -11487,48 +11671,48 @@
       </c>
       <c r="B427">
         <f t="shared" si="11"/>
-        <v>7503560</v>
+        <v>7503562</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B428">
         <f t="shared" si="11"/>
-        <v>7503562</v>
+        <v>7503560</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="B429">
         <f t="shared" si="11"/>
-        <v>7503545</v>
+        <v>7482854</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="B430">
         <f t="shared" si="11"/>
-        <v>70</v>
+        <v>7501630</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B431">
         <f t="shared" si="11"/>
-        <v>7503562</v>
+        <v>107</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B432">
         <f t="shared" si="11"/>
@@ -11537,20 +11721,20 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="B433">
         <f t="shared" si="11"/>
-        <v>70</v>
+        <v>7478327</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="B434">
         <f t="shared" si="11"/>
-        <v>7503562</v>
+        <v>70</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -11564,7 +11748,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>20.314652165999998</v>
+        <v>18.121898926</v>
       </c>
       <c r="B436" t="e">
         <f t="shared" si="11"/>

--- a/benchmarks/parallel-multi-intersect/waves.xlsx
+++ b/benchmarks/parallel-multi-intersect/waves.xlsx
@@ -3936,7 +3936,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$350:$B$435</c15:sqref>
@@ -4208,7 +4208,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-0052-409A-9F8C-897F9F75E2FB}"/>
                   </c:ext>
@@ -4274,7 +4274,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Title</a:t>
+                  <a:t>intersect number</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4351,6 +4351,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
         <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
@@ -4396,7 +4397,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Title</a:t>
+                  <a:t>key error</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5994,7 +5995,8 @@
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -6013,7 +6015,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304694" cy="6084337"/>
+    <xdr:ext cx="9291735" cy="6084337"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>

--- a/benchmarks/parallel-multi-intersect/waves.xlsx
+++ b/benchmarks/parallel-multi-intersect/waves.xlsx
@@ -4352,7 +4352,7 @@
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="5"/>
-        <c:tickMarkSkip val="1"/>
+        <c:tickMarkSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -4466,6 +4466,39 @@
         <c:crossAx val="567292096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>

--- a/benchmarks/parallel-multi-intersect/waves.xlsx
+++ b/benchmarks/parallel-multi-intersect/waves.xlsx
@@ -1597,7 +1597,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1 thread</c:v>
+            <c:v>1 Thread</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -2168,7 +2168,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2 threads</c:v>
+            <c:v>2 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -2739,12 +2739,12 @@
           <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4 threads</c:v>
+            <c:v>4 Threads</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="15875" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2755,11 +2755,11 @@
             <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="70AD47"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4274,7 +4274,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>intersect number</a:t>
+                  <a:t>Intersect Number</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4397,8 +4397,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>key error</a:t>
+                  <a:t>Key</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> Error</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6025,7 +6030,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -6048,7 +6053,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291735" cy="6084337"/>
+    <xdr:ext cx="9310872" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
